--- a/run_log/run_results/train_history/training_history_run_15.xlsx
+++ b/run_log/run_results/train_history/training_history_run_15.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.05291318148374557</v>
+        <v>0.1282389760017395</v>
       </c>
       <c r="B2">
-        <v>0.9842709302902222</v>
+        <v>0.9628564715385437</v>
       </c>
       <c r="C2">
-        <v>0.009722035378217697</v>
+        <v>0.1785556823015213</v>
       </c>
       <c r="D2">
-        <v>0.9971908330917358</v>
+        <v>0.9517366886138916</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.007877429015934467</v>
+        <v>0.03223736211657524</v>
       </c>
       <c r="B3">
-        <v>0.9982926249504089</v>
+        <v>0.992206871509552</v>
       </c>
       <c r="C3">
-        <v>0.002691183239221573</v>
+        <v>0.2270778119564056</v>
       </c>
       <c r="D3">
-        <v>0.9991973638534546</v>
+        <v>0.9411821365356445</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003718494204804301</v>
+        <v>0.02203092165291309</v>
       </c>
       <c r="B4">
-        <v>0.9987835288047791</v>
+        <v>0.9930191040039062</v>
       </c>
       <c r="C4">
-        <v>0.001251343637704849</v>
+        <v>0.1386857032775879</v>
       </c>
       <c r="D4">
-        <v>0.999866247177124</v>
+        <v>0.9526962041854858</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001841584220528603</v>
+        <v>0.01683168485760689</v>
       </c>
       <c r="B5">
-        <v>0.9995091557502747</v>
+        <v>0.9940289258956909</v>
       </c>
       <c r="C5">
-        <v>0.0005336339818313718</v>
+        <v>0.07311633229255676</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9596046805381775</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001516826683655381</v>
+        <v>0.01440321281552315</v>
       </c>
       <c r="B6">
-        <v>0.9996371865272522</v>
+        <v>0.9941606521606445</v>
       </c>
       <c r="C6">
-        <v>0.000437292386777699</v>
+        <v>0.1242493987083435</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9579735398292542</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.0008626898634247482</v>
+        <v>0.01380656287074089</v>
       </c>
       <c r="B7">
-        <v>0.9998078942298889</v>
+        <v>0.9937655329704285</v>
       </c>
       <c r="C7">
-        <v>0.0002391010348219424</v>
+        <v>0.121691606938839</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.954327404499054</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0003310938191134483</v>
+        <v>0.01195869967341423</v>
       </c>
       <c r="B8">
-        <v>0.9998933076858521</v>
+        <v>0.9963339567184448</v>
       </c>
       <c r="C8">
-        <v>0.0004628425522241741</v>
+        <v>0.09574044495820999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.957685649394989</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001457653823308647</v>
+        <v>0.01050076633691788</v>
       </c>
       <c r="B9">
-        <v>0.9995518326759338</v>
+        <v>0.9967730045318604</v>
       </c>
       <c r="C9">
-        <v>0.0001060476279235445</v>
+        <v>0.07743805646896362</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9625791311264038</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0002962483558803797</v>
+        <v>0.01018921751528978</v>
       </c>
       <c r="B10">
-        <v>0.9998933076858521</v>
+        <v>0.9965754151344299</v>
       </c>
       <c r="C10">
-        <v>1.20374818379787E-06</v>
+        <v>0.1396393626928329</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.9459796547889709</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0006094916607253253</v>
+        <v>0.009051336906850338</v>
       </c>
       <c r="B11">
-        <v>0.9998292922973633</v>
+        <v>0.996816873550415</v>
       </c>
       <c r="C11">
-        <v>1.635984403947077E-06</v>
+        <v>0.08929783850908279</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9665131568908691</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0004907983238808811</v>
+        <v>0.009744052775204182</v>
       </c>
       <c r="B12">
-        <v>0.9998078942298889</v>
+        <v>0.9965095520019531</v>
       </c>
       <c r="C12">
-        <v>9.586262422089931E-06</v>
+        <v>0.08521924167871475</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9632508158683777</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0002824111434165388</v>
+        <v>0.008984826505184174</v>
       </c>
       <c r="B13">
-        <v>0.9998933076858521</v>
+        <v>0.9966632127761841</v>
       </c>
       <c r="C13">
-        <v>8.973995863925666E-05</v>
+        <v>0.08180578798055649</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.966225266456604</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0002982117293868214</v>
+        <v>0.009071167558431625</v>
       </c>
       <c r="B14">
-        <v>0.9998933076858521</v>
+        <v>0.9966193437576294</v>
       </c>
       <c r="C14">
-        <v>1.270358666261018E-06</v>
+        <v>0.09515927731990814</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9754365682601929</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0006039437721483409</v>
+        <v>0.008991554379463196</v>
       </c>
       <c r="B15">
-        <v>0.9998506307601929</v>
+        <v>0.9965754151344299</v>
       </c>
       <c r="C15">
-        <v>2.525011097986862E-07</v>
+        <v>0.08974380791187286</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9614277482032776</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0003491503011900932</v>
+        <v>0.008799412287771702</v>
       </c>
       <c r="B16">
-        <v>0.9998933076858521</v>
+        <v>0.9968827366828918</v>
       </c>
       <c r="C16">
-        <v>3.896055034147139E-07</v>
+        <v>0.1180259585380554</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9680483341217041</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.000238000851823017</v>
+        <v>0.008448570035398006</v>
       </c>
       <c r="B17">
-        <v>0.9999573230743408</v>
+        <v>0.9967071413993835</v>
       </c>
       <c r="C17">
-        <v>1.1680069292197E-05</v>
+        <v>0.1644821614027023</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9670888781547546</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0002989808854181319</v>
+        <v>0.009483812376856804</v>
       </c>
       <c r="B18">
-        <v>0.9999573230743408</v>
+        <v>0.9966412782669067</v>
       </c>
       <c r="C18">
-        <v>1.117427837016294E-05</v>
+        <v>0.05399708077311516</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9668009877204895</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0001403127826051787</v>
+        <v>0.008651969023048878</v>
       </c>
       <c r="B19">
-        <v>0.9999359846115112</v>
+        <v>0.9965973496437073</v>
       </c>
       <c r="C19">
-        <v>1.82176645466825E-05</v>
+        <v>0.05299533531069756</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9697754979133606</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0001820284087443724</v>
+        <v>0.008957092650234699</v>
       </c>
       <c r="B20">
-        <v>0.9999359846115112</v>
+        <v>0.9967510104179382</v>
       </c>
       <c r="C20">
-        <v>1.896436697279569E-05</v>
+        <v>0.1048153787851334</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.967568576335907</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1.975769555428997E-05</v>
+        <v>0.008600062690675259</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9966193437576294</v>
       </c>
       <c r="C21">
-        <v>2.368826024223836E-08</v>
+        <v>0.05450410023331642</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9722701907157898</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>2.107566615450196E-06</v>
+        <v>0.009247648529708385</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9965754151344299</v>
       </c>
       <c r="C22">
-        <v>1.46595226624413E-07</v>
+        <v>0.04101405665278435</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9781231880187988</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1.342714767815778E-06</v>
+        <v>0.008323425427079201</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9967949390411377</v>
       </c>
       <c r="C23">
-        <v>3.796728265115235E-08</v>
+        <v>0.03869495540857315</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9786029458045959</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0009147620876319706</v>
+        <v>0.009087215177714825</v>
       </c>
       <c r="B24">
-        <v>0.9998719692230225</v>
+        <v>0.9965095520019531</v>
       </c>
       <c r="C24">
-        <v>4.278997494111536E-07</v>
+        <v>0.04440681263804436</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.978411078453064</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.000144784789881669</v>
+        <v>0.009995067492127419</v>
       </c>
       <c r="B25">
-        <v>0.9999359846115112</v>
+        <v>0.9963119626045227</v>
       </c>
       <c r="C25">
-        <v>4.414968134369701E-05</v>
+        <v>0.09454083442687988</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9694876074790955</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0002559169370215386</v>
+        <v>0.008116000331938267</v>
       </c>
       <c r="B26">
-        <v>0.9998933076858521</v>
+        <v>0.996904730796814</v>
       </c>
       <c r="C26">
-        <v>1.913809501274955E-05</v>
+        <v>0.1313388347625732</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9692957401275635</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0003490335366223007</v>
+        <v>0.00849370751529932</v>
       </c>
       <c r="B27">
-        <v>0.9999146461486816</v>
+        <v>0.9967510104179382</v>
       </c>
       <c r="C27">
-        <v>7.083122181938961E-05</v>
+        <v>0.1361873596906662</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9710228443145752</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0003264323750045151</v>
+        <v>0.008890886791050434</v>
       </c>
       <c r="B28">
-        <v>0.9999573230743408</v>
+        <v>0.996421754360199</v>
       </c>
       <c r="C28">
-        <v>8.139464625855908E-06</v>
+        <v>0.1485448777675629</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9641143679618835</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>6.478380964836106E-05</v>
+        <v>0.008416827768087387</v>
       </c>
       <c r="B29">
-        <v>0.9999786615371704</v>
+        <v>0.9967949390411377</v>
       </c>
       <c r="C29">
-        <v>3.272835726875201E-07</v>
+        <v>0.02545074373483658</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9865669012069702</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0003233615716453642</v>
+        <v>0.008944380097091198</v>
       </c>
       <c r="B30">
-        <v>0.9999146461486816</v>
+        <v>0.9963339567184448</v>
       </c>
       <c r="C30">
-        <v>8.66214122652309E-08</v>
+        <v>0.01440200302749872</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9949145913124084</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0004536878841463476</v>
+        <v>0.009300052188336849</v>
       </c>
       <c r="B31">
-        <v>0.9999359846115112</v>
+        <v>0.9961802959442139</v>
       </c>
       <c r="C31">
-        <v>1.019633691612398E-05</v>
+        <v>0.01399672497063875</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9948186278343201</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001143063636845909</v>
+        <v>0.009228548035025597</v>
       </c>
       <c r="B32">
-        <v>0.9999573230743408</v>
+        <v>0.9970144629478455</v>
       </c>
       <c r="C32">
-        <v>4.944961347064236E-07</v>
+        <v>0.01115142926573753</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9965457916259766</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001613238273421302</v>
+        <v>0.007855038158595562</v>
       </c>
       <c r="B33">
-        <v>0.9999573230743408</v>
+        <v>0.9968827366828918</v>
       </c>
       <c r="C33">
-        <v>9.41262783271668E-07</v>
+        <v>0.009478968568146229</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.997313380241394</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.001016141381114721</v>
+        <v>0.008763711899518967</v>
       </c>
       <c r="B34">
-        <v>0.9997652173042297</v>
+        <v>0.9966193437576294</v>
       </c>
       <c r="C34">
-        <v>5.796489066511867E-09</v>
+        <v>0.01785976625978947</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.99299556016922</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0001061813964042813</v>
+        <v>0.008519371971487999</v>
       </c>
       <c r="B35">
-        <v>0.9999573230743408</v>
+        <v>0.9965973496437073</v>
       </c>
       <c r="C35">
-        <v>4.707853662466732E-08</v>
+        <v>0.01033820491284132</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9979850053787231</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0003194212913513184</v>
+        <v>0.008793055079877377</v>
       </c>
       <c r="B36">
-        <v>0.9999359846115112</v>
+        <v>0.9963998198509216</v>
       </c>
       <c r="C36">
-        <v>1.01818322661984E-08</v>
+        <v>0.009882328100502491</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9977931380271912</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>7.809104863554239E-05</v>
+        <v>0.008644300512969494</v>
       </c>
       <c r="B37">
-        <v>0.9999573230743408</v>
+        <v>0.9967510104179382</v>
       </c>
       <c r="C37">
-        <v>7.016526248904142E-10</v>
+        <v>0.01758559979498386</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9953943490982056</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.726537220747559E-06</v>
+        <v>0.009450608864426613</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9962022304534912</v>
       </c>
       <c r="C38">
-        <v>3.189332131725564E-10</v>
+        <v>0.01575752533972263</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9969295859336853</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>6.024118192726746E-06</v>
+        <v>0.008584649302065372</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9965754151344299</v>
       </c>
       <c r="C39">
-        <v>1.315596187545509E-09</v>
+        <v>0.02285070158541203</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9944348335266113</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0001255854876944795</v>
+        <v>0.008455325849354267</v>
       </c>
       <c r="B40">
-        <v>0.9999786615371704</v>
+        <v>0.9966412782669067</v>
       </c>
       <c r="C40">
-        <v>7.096260801198184E-10</v>
+        <v>0.006157251540571451</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9989445209503174</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0003586570092011243</v>
+        <v>0.007854791358113289</v>
       </c>
       <c r="B41">
-        <v>0.9998719692230225</v>
+        <v>0.9970363974571228</v>
       </c>
       <c r="C41">
-        <v>3.323460077808704E-06</v>
+        <v>0.00817712489515543</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9982728958129883</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0003707613213919103</v>
+        <v>0.008207334205508232</v>
       </c>
       <c r="B42">
-        <v>0.9999146461486816</v>
+        <v>0.9967290759086609</v>
       </c>
       <c r="C42">
-        <v>1.674312244404064E-08</v>
+        <v>0.01105641294270754</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9980809688568115</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0002555663813836873</v>
+        <v>0.008842155337333679</v>
       </c>
       <c r="B43">
-        <v>0.9999359846115112</v>
+        <v>0.9964436888694763</v>
       </c>
       <c r="C43">
-        <v>6.617861814106618E-10</v>
+        <v>0.01407072227448225</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9957781434059143</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.312896529270802E-05</v>
+        <v>0.008421175181865692</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9965973496437073</v>
       </c>
       <c r="C44">
-        <v>3.74746289555361E-10</v>
+        <v>0.008083195425570011</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.998656690120697</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>5.063047410658328E-06</v>
+        <v>0.007668427191674709</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9970144629478455</v>
       </c>
       <c r="C45">
-        <v>1.275732991468104E-10</v>
+        <v>0.007804097607731819</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9984647631645203</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2.249942008347716E-05</v>
+        <v>0.009726038202643394</v>
       </c>
       <c r="B46">
-        <v>0.9999786615371704</v>
+        <v>0.9967949390411377</v>
       </c>
       <c r="C46">
-        <v>6.378660932782054E-10</v>
+        <v>0.006464036181569099</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9988486170768738</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>8.398262434639037E-05</v>
+        <v>0.00785375852137804</v>
       </c>
       <c r="B47">
-        <v>0.9999786615371704</v>
+        <v>0.9968388676643372</v>
       </c>
       <c r="C47">
-        <v>3.986665858546345E-11</v>
+        <v>0.007867932319641113</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9988486170768738</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0004055719764437526</v>
+        <v>0.007840006612241268</v>
       </c>
       <c r="B48">
-        <v>0.9998719692230225</v>
+        <v>0.9968388676643372</v>
       </c>
       <c r="C48">
-        <v>7.973332064037386E-12</v>
+        <v>0.007646213285624981</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9985607266426086</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0002340409555472434</v>
+        <v>0.008642685599625111</v>
       </c>
       <c r="B49">
-        <v>0.9999573230743408</v>
+        <v>0.9966193437576294</v>
       </c>
       <c r="C49">
-        <v>1.514932762569643E-10</v>
+        <v>0.007394760381430387</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.998656690120697</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>2.016649341385346E-05</v>
+        <v>0.008498113602399826</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9965314865112305</v>
       </c>
       <c r="C50">
-        <v>6.498092286477686E-09</v>
+        <v>0.007553883362561464</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9984647631645203</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>9.632047294871882E-05</v>
+        <v>0.008400174789130688</v>
       </c>
       <c r="B51">
-        <v>0.9999786615371704</v>
+        <v>0.9965973496437073</v>
       </c>
       <c r="C51">
-        <v>3.029864970027774E-10</v>
+        <v>0.01532774604856968</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9945307970046997</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_15.xlsx
+++ b/run_log/run_results/train_history/training_history_run_15.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1282389760017395</v>
+        <v>0.07808484137058258</v>
       </c>
       <c r="B2">
-        <v>0.9628564715385437</v>
+        <v>0.976799488067627</v>
       </c>
       <c r="C2">
-        <v>0.1785556823015213</v>
+        <v>0.02926388569176197</v>
       </c>
       <c r="D2">
-        <v>0.9517366886138916</v>
+        <v>0.9955849647521973</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03223736211657524</v>
+        <v>0.01106275152415037</v>
       </c>
       <c r="B3">
-        <v>0.992206871509552</v>
+        <v>0.9982528686523438</v>
       </c>
       <c r="C3">
-        <v>0.2270778119564056</v>
+        <v>0.01543474290519953</v>
       </c>
       <c r="D3">
-        <v>0.9411821365356445</v>
+        <v>0.9974029064178467</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.02203092165291309</v>
+        <v>0.006138517521321774</v>
       </c>
       <c r="B4">
-        <v>0.9930191040039062</v>
+        <v>0.9988826513290405</v>
       </c>
       <c r="C4">
-        <v>0.1386857032775879</v>
+        <v>0.02326688729226589</v>
       </c>
       <c r="D4">
-        <v>0.9526962041854858</v>
+        <v>0.9974029064178467</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01683168485760689</v>
+        <v>0.003981972578912973</v>
       </c>
       <c r="B5">
-        <v>0.9940289258956909</v>
+        <v>0.9991467595100403</v>
       </c>
       <c r="C5">
-        <v>0.07311633229255676</v>
+        <v>0.00600683456286788</v>
       </c>
       <c r="D5">
-        <v>0.9596046805381775</v>
+        <v>0.9992209076881409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.01440321281552315</v>
+        <v>0.002260089619085193</v>
       </c>
       <c r="B6">
-        <v>0.9941606521606445</v>
+        <v>0.9994514584541321</v>
       </c>
       <c r="C6">
-        <v>0.1242493987083435</v>
+        <v>0.01329349353909492</v>
       </c>
       <c r="D6">
-        <v>0.9579735398292542</v>
+        <v>0.9951954483985901</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01380656287074089</v>
+        <v>0.002069567795842886</v>
       </c>
       <c r="B7">
-        <v>0.9937655329704285</v>
+        <v>0.9995733499526978</v>
       </c>
       <c r="C7">
-        <v>0.121691606938839</v>
+        <v>0.08156297355890274</v>
       </c>
       <c r="D7">
-        <v>0.954327404499054</v>
+        <v>0.9713024497032166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.01195869967341423</v>
+        <v>0.001741808489896357</v>
       </c>
       <c r="B8">
-        <v>0.9963339567184448</v>
+        <v>0.9995530247688293</v>
       </c>
       <c r="C8">
-        <v>0.09574044495820999</v>
+        <v>0.00366463209502399</v>
       </c>
       <c r="D8">
-        <v>0.957685649394989</v>
+        <v>0.9987014532089233</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.01050076633691788</v>
+        <v>0.001231146743521094</v>
       </c>
       <c r="B9">
-        <v>0.9967730045318604</v>
+        <v>0.9996952414512634</v>
       </c>
       <c r="C9">
-        <v>0.07743805646896362</v>
+        <v>0.006759139243513346</v>
       </c>
       <c r="D9">
-        <v>0.9625791311264038</v>
+        <v>0.9993507266044617</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01018921751528978</v>
+        <v>0.0009030215442180634</v>
       </c>
       <c r="B10">
-        <v>0.9965754151344299</v>
+        <v>0.9997968673706055</v>
       </c>
       <c r="C10">
-        <v>0.1396393626928329</v>
+        <v>0.004769213031977415</v>
       </c>
       <c r="D10">
-        <v>0.9459796547889709</v>
+        <v>0.9993507266044617</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.009051336906850338</v>
+        <v>0.0004076012119185179</v>
       </c>
       <c r="B11">
-        <v>0.996816873550415</v>
+        <v>0.9998577833175659</v>
       </c>
       <c r="C11">
-        <v>0.08929783850908279</v>
+        <v>0.002256473992019892</v>
       </c>
       <c r="D11">
-        <v>0.9665131568908691</v>
+        <v>0.9988313317298889</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.009744052775204182</v>
+        <v>0.001369976089335978</v>
       </c>
       <c r="B12">
-        <v>0.9965095520019531</v>
+        <v>0.9997358918190002</v>
       </c>
       <c r="C12">
-        <v>0.08521924167871475</v>
+        <v>0.001323322532698512</v>
       </c>
       <c r="D12">
-        <v>0.9632508158683777</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.008984826505184174</v>
+        <v>0.0005591873778030276</v>
       </c>
       <c r="B13">
-        <v>0.9966632127761841</v>
+        <v>0.9998577833175659</v>
       </c>
       <c r="C13">
-        <v>0.08180578798055649</v>
+        <v>0.005230619572103024</v>
       </c>
       <c r="D13">
-        <v>0.966225266456604</v>
+        <v>0.9992209076881409</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.009071167558431625</v>
+        <v>0.0004880662309005857</v>
       </c>
       <c r="B14">
-        <v>0.9966193437576294</v>
+        <v>0.9998984336853027</v>
       </c>
       <c r="C14">
-        <v>0.09515927731990814</v>
+        <v>0.06229626759886742</v>
       </c>
       <c r="D14">
-        <v>0.9754365682601929</v>
+        <v>0.9793533086776733</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.008991554379463196</v>
+        <v>0.0001879286137409508</v>
       </c>
       <c r="B15">
-        <v>0.9965754151344299</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C15">
-        <v>0.08974380791187286</v>
+        <v>0.01613849587738514</v>
       </c>
       <c r="D15">
-        <v>0.9614277482032776</v>
+        <v>0.9916893839836121</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.008799412287771702</v>
+        <v>0.001867784652858973</v>
       </c>
       <c r="B16">
-        <v>0.9968827366828918</v>
+        <v>0.9997358918190002</v>
       </c>
       <c r="C16">
-        <v>0.1180259585380554</v>
+        <v>0.01163168530911207</v>
       </c>
       <c r="D16">
-        <v>0.9680483341217041</v>
+        <v>0.996493935585022</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.008448570035398006</v>
+        <v>0.0004641236446332186</v>
       </c>
       <c r="B17">
-        <v>0.9967071413993835</v>
+        <v>0.9998984336853027</v>
       </c>
       <c r="C17">
-        <v>0.1644821614027023</v>
+        <v>0.009660567156970501</v>
       </c>
       <c r="D17">
-        <v>0.9670888781547546</v>
+        <v>0.9955849647521973</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.009483812376856804</v>
+        <v>0.0006616854225285351</v>
       </c>
       <c r="B18">
-        <v>0.9966412782669067</v>
+        <v>0.9998171329498291</v>
       </c>
       <c r="C18">
-        <v>0.05399708077311516</v>
+        <v>0.0005179026047699153</v>
       </c>
       <c r="D18">
-        <v>0.9668009877204895</v>
+        <v>0.9998701214790344</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.008651969023048878</v>
+        <v>0.0004291266959626228</v>
       </c>
       <c r="B19">
-        <v>0.9965973496437073</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C19">
-        <v>0.05299533531069756</v>
+        <v>0.003307518782094121</v>
       </c>
       <c r="D19">
-        <v>0.9697754979133606</v>
+        <v>0.9990910291671753</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.008957092650234699</v>
+        <v>0.0002978880074806511</v>
       </c>
       <c r="B20">
-        <v>0.9967510104179382</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C20">
-        <v>0.1048153787851334</v>
+        <v>0.001814884250052273</v>
       </c>
       <c r="D20">
-        <v>0.967568576335907</v>
+        <v>0.9993507266044617</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.008600062690675259</v>
+        <v>0.0004917886108160019</v>
       </c>
       <c r="B21">
-        <v>0.9966193437576294</v>
+        <v>0.9998984336853027</v>
       </c>
       <c r="C21">
-        <v>0.05450410023331642</v>
+        <v>0.001048648147843778</v>
       </c>
       <c r="D21">
-        <v>0.9722701907157898</v>
+        <v>0.9994806051254272</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.009247648529708385</v>
+        <v>0.0007474409067071974</v>
       </c>
       <c r="B22">
-        <v>0.9965754151344299</v>
+        <v>0.9998171329498291</v>
       </c>
       <c r="C22">
-        <v>0.04101405665278435</v>
+        <v>0.001661051181145012</v>
       </c>
       <c r="D22">
-        <v>0.9781231880187988</v>
+        <v>0.9994806051254272</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.008323425427079201</v>
+        <v>0.0001386938529321924</v>
       </c>
       <c r="B23">
-        <v>0.9967949390411377</v>
+        <v>0.9999390244483948</v>
       </c>
       <c r="C23">
-        <v>0.03869495540857315</v>
+        <v>0.004698988050222397</v>
       </c>
       <c r="D23">
-        <v>0.9786029458045959</v>
+        <v>0.9985716342926025</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.009087215177714825</v>
+        <v>0.0003021816664841026</v>
       </c>
       <c r="B24">
-        <v>0.9965095520019531</v>
+        <v>0.9999390244483948</v>
       </c>
       <c r="C24">
-        <v>0.04440681263804436</v>
+        <v>0.001541881007142365</v>
       </c>
       <c r="D24">
-        <v>0.978411078453064</v>
+        <v>0.9993507266044617</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.009995067492127419</v>
+        <v>0.0001137061481131241</v>
       </c>
       <c r="B25">
-        <v>0.9963119626045227</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C25">
-        <v>0.09454083442687988</v>
+        <v>0.001072428887709975</v>
       </c>
       <c r="D25">
-        <v>0.9694876074790955</v>
+        <v>0.9998701214790344</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.008116000331938267</v>
+        <v>3.552705311449245E-05</v>
       </c>
       <c r="B26">
-        <v>0.996904730796814</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.1313388347625732</v>
+        <v>0.0009380069095641375</v>
       </c>
       <c r="D26">
-        <v>0.9692957401275635</v>
+        <v>0.9998701214790344</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.00849370751529932</v>
+        <v>0.001010110136121511</v>
       </c>
       <c r="B27">
-        <v>0.9967510104179382</v>
+        <v>0.9998171329498291</v>
       </c>
       <c r="C27">
-        <v>0.1361873596906662</v>
+        <v>0.001088000484742224</v>
       </c>
       <c r="D27">
-        <v>0.9710228443145752</v>
+        <v>0.9998701214790344</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.008890886791050434</v>
+        <v>0.0001256583782378584</v>
       </c>
       <c r="B28">
-        <v>0.996421754360199</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C28">
-        <v>0.1485448777675629</v>
+        <v>0.0009581441408954561</v>
       </c>
       <c r="D28">
-        <v>0.9641143679618835</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.008416827768087387</v>
+        <v>0.0001994179474422708</v>
       </c>
       <c r="B29">
-        <v>0.9967949390411377</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C29">
-        <v>0.02545074373483658</v>
+        <v>0.0008691670373082161</v>
       </c>
       <c r="D29">
-        <v>0.9865669012069702</v>
+        <v>0.9998701214790344</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.008944380097091198</v>
+        <v>0.0002934144577011466</v>
       </c>
       <c r="B30">
-        <v>0.9963339567184448</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C30">
-        <v>0.01440200302749872</v>
+        <v>0.001189404516480863</v>
       </c>
       <c r="D30">
-        <v>0.9949145913124084</v>
+        <v>0.9994806051254272</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.009300052188336849</v>
+        <v>0.0003493625845294446</v>
       </c>
       <c r="B31">
-        <v>0.9961802959442139</v>
+        <v>0.9998984336853027</v>
       </c>
       <c r="C31">
-        <v>0.01399672497063875</v>
+        <v>0.006141919177025557</v>
       </c>
       <c r="D31">
-        <v>0.9948186278343201</v>
+        <v>0.998441755771637</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.009228548035025597</v>
+        <v>0.0001498634810559452</v>
       </c>
       <c r="B32">
-        <v>0.9970144629478455</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C32">
-        <v>0.01115142926573753</v>
+        <v>0.002201457507908344</v>
       </c>
       <c r="D32">
-        <v>0.9965457916259766</v>
+        <v>0.9992209076881409</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.007855038158595562</v>
+        <v>3.03925608022837E-05</v>
       </c>
       <c r="B33">
-        <v>0.9968827366828918</v>
+        <v>0.9999796748161316</v>
       </c>
       <c r="C33">
-        <v>0.009478968568146229</v>
+        <v>0.001678029890172184</v>
       </c>
       <c r="D33">
-        <v>0.997313380241394</v>
+        <v>0.9993507266044617</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.008763711899518967</v>
+        <v>0.0002189535298384726</v>
       </c>
       <c r="B34">
-        <v>0.9966193437576294</v>
+        <v>0.9999390244483948</v>
       </c>
       <c r="C34">
-        <v>0.01785976625978947</v>
+        <v>0.002176714362576604</v>
       </c>
       <c r="D34">
-        <v>0.99299556016922</v>
+        <v>0.9989611506462097</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.008519371971487999</v>
+        <v>0.0003084285126533359</v>
       </c>
       <c r="B35">
-        <v>0.9965973496437073</v>
+        <v>0.9999796748161316</v>
       </c>
       <c r="C35">
-        <v>0.01033820491284132</v>
+        <v>0.00210945401340723</v>
       </c>
       <c r="D35">
-        <v>0.9979850053787231</v>
+        <v>0.9990910291671753</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.008793055079877377</v>
+        <v>0.0001985036942642182</v>
       </c>
       <c r="B36">
-        <v>0.9963998198509216</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C36">
-        <v>0.009882328100502491</v>
+        <v>0.005830573383718729</v>
       </c>
       <c r="D36">
-        <v>0.9977931380271912</v>
+        <v>0.9983119368553162</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.008644300512969494</v>
+        <v>1.789686393749435E-05</v>
       </c>
       <c r="B37">
-        <v>0.9967510104179382</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0.01758559979498386</v>
+        <v>0.005526285618543625</v>
       </c>
       <c r="D37">
-        <v>0.9953943490982056</v>
+        <v>0.9983119368553162</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.009450608864426613</v>
+        <v>2.17073320527561E-05</v>
       </c>
       <c r="B38">
-        <v>0.9962022304534912</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.01575752533972263</v>
+        <v>0.008020238019526005</v>
       </c>
       <c r="D38">
-        <v>0.9969295859336853</v>
+        <v>0.9976626634597778</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.008584649302065372</v>
+        <v>0.0001652026548981667</v>
       </c>
       <c r="B39">
-        <v>0.9965754151344299</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C39">
-        <v>0.02285070158541203</v>
+        <v>0.001181022147648036</v>
       </c>
       <c r="D39">
-        <v>0.9944348335266113</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.008455325849354267</v>
+        <v>0.0003896682756021619</v>
       </c>
       <c r="B40">
-        <v>0.9966412782669067</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C40">
-        <v>0.006157251540571451</v>
+        <v>0.005402479320764542</v>
       </c>
       <c r="D40">
-        <v>0.9989445209503174</v>
+        <v>0.9988313317298889</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.007854791358113289</v>
+        <v>0.0001197011006297544</v>
       </c>
       <c r="B41">
-        <v>0.9970363974571228</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C41">
-        <v>0.00817712489515543</v>
+        <v>0.001983430702239275</v>
       </c>
       <c r="D41">
-        <v>0.9982728958129883</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.008207334205508232</v>
+        <v>8.892395271686837E-06</v>
       </c>
       <c r="B42">
-        <v>0.9967290759086609</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>0.01105641294270754</v>
+        <v>0.002634135307744145</v>
       </c>
       <c r="D42">
-        <v>0.9980809688568115</v>
+        <v>0.9994806051254272</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.008842155337333679</v>
+        <v>0.0002307465620106086</v>
       </c>
       <c r="B43">
-        <v>0.9964436888694763</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C43">
-        <v>0.01407072227448225</v>
+        <v>0.003290173364803195</v>
       </c>
       <c r="D43">
-        <v>0.9957781434059143</v>
+        <v>0.9994806051254272</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.008421175181865692</v>
+        <v>0.0001711670192889869</v>
       </c>
       <c r="B44">
-        <v>0.9965973496437073</v>
+        <v>0.9999390244483948</v>
       </c>
       <c r="C44">
-        <v>0.008083195425570011</v>
+        <v>0.001847579376772046</v>
       </c>
       <c r="D44">
-        <v>0.998656690120697</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.007668427191674709</v>
+        <v>2.280237094964832E-05</v>
       </c>
       <c r="B45">
-        <v>0.9970144629478455</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>0.007804097607731819</v>
+        <v>0.001637911191210151</v>
       </c>
       <c r="D45">
-        <v>0.9984647631645203</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.009726038202643394</v>
+        <v>2.872677441700944E-06</v>
       </c>
       <c r="B46">
-        <v>0.9967949390411377</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>0.006464036181569099</v>
+        <v>0.001853591413237154</v>
       </c>
       <c r="D46">
-        <v>0.9988486170768738</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.00785375852137804</v>
+        <v>0.0004921036306768656</v>
       </c>
       <c r="B47">
-        <v>0.9968388676643372</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C47">
-        <v>0.007867932319641113</v>
+        <v>0.005948093254119158</v>
       </c>
       <c r="D47">
-        <v>0.9988486170768738</v>
+        <v>0.9994806051254272</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.007840006612241268</v>
+        <v>0.001327288337051868</v>
       </c>
       <c r="B48">
-        <v>0.9968388676643372</v>
+        <v>0.9999187588691711</v>
       </c>
       <c r="C48">
-        <v>0.007646213285624981</v>
+        <v>0.003672604216262698</v>
       </c>
       <c r="D48">
-        <v>0.9985607266426086</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.008642685599625111</v>
+        <v>1.609816354175564E-05</v>
       </c>
       <c r="B49">
-        <v>0.9966193437576294</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>0.007394760381430387</v>
+        <v>0.003462479915469885</v>
       </c>
       <c r="D49">
-        <v>0.998656690120697</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.008498113602399826</v>
+        <v>0.0003063080948777497</v>
       </c>
       <c r="B50">
-        <v>0.9965314865112305</v>
+        <v>0.9999796748161316</v>
       </c>
       <c r="C50">
-        <v>0.007553883362561464</v>
+        <v>0.002926076529547572</v>
       </c>
       <c r="D50">
-        <v>0.9984647631645203</v>
+        <v>0.9994806051254272</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.008400174789130688</v>
+        <v>0.000402532983571291</v>
       </c>
       <c r="B51">
-        <v>0.9965973496437073</v>
+        <v>0.9999593496322632</v>
       </c>
       <c r="C51">
-        <v>0.01532774604856968</v>
+        <v>0.006018331740051508</v>
       </c>
       <c r="D51">
-        <v>0.9945307970046997</v>
+        <v>0.999610424041748</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_15.xlsx
+++ b/run_log/run_results/train_history/training_history_run_15.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.07808484137058258</v>
+        <v>0.06476221978664398</v>
       </c>
       <c r="B2">
-        <v>0.976799488067627</v>
+        <v>0.9810612201690674</v>
       </c>
       <c r="C2">
-        <v>0.02926388569176197</v>
+        <v>0.00437135249376297</v>
       </c>
       <c r="D2">
-        <v>0.9955849647521973</v>
+        <v>0.9992126822471619</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01106275152415037</v>
+        <v>0.009770811535418034</v>
       </c>
       <c r="B3">
-        <v>0.9982528686523438</v>
+        <v>0.9983066320419312</v>
       </c>
       <c r="C3">
-        <v>0.01543474290519953</v>
+        <v>0.002968936692923307</v>
       </c>
       <c r="D3">
-        <v>0.9974029064178467</v>
+        <v>0.9993557929992676</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.006138517521321774</v>
+        <v>0.004503690171986818</v>
       </c>
       <c r="B4">
-        <v>0.9988826513290405</v>
+        <v>0.9989683628082275</v>
       </c>
       <c r="C4">
-        <v>0.02326688729226589</v>
+        <v>0.0005921124829910696</v>
       </c>
       <c r="D4">
-        <v>0.9974029064178467</v>
+        <v>0.9996421337127686</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003981972578912973</v>
+        <v>0.002431630855426192</v>
       </c>
       <c r="B5">
-        <v>0.9991467595100403</v>
+        <v>0.9993966221809387</v>
       </c>
       <c r="C5">
-        <v>0.00600683456286788</v>
+        <v>0.0007437243475578725</v>
       </c>
       <c r="D5">
-        <v>0.9992209076881409</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.002260089619085193</v>
+        <v>0.001630124868825078</v>
       </c>
       <c r="B6">
-        <v>0.9994514584541321</v>
+        <v>0.9996301531791687</v>
       </c>
       <c r="C6">
-        <v>0.01329349353909492</v>
+        <v>0.0007195430225692689</v>
       </c>
       <c r="D6">
-        <v>0.9951954483985901</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.002069567795842886</v>
+        <v>0.001827004365622997</v>
       </c>
       <c r="B7">
-        <v>0.9995733499526978</v>
+        <v>0.9997080564498901</v>
       </c>
       <c r="C7">
-        <v>0.08156297355890274</v>
+        <v>0.0003458843566477299</v>
       </c>
       <c r="D7">
-        <v>0.9713024497032166</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001741808489896357</v>
+        <v>0.001015970483422279</v>
       </c>
       <c r="B8">
-        <v>0.9995530247688293</v>
+        <v>0.9997080564498901</v>
       </c>
       <c r="C8">
-        <v>0.00366463209502399</v>
+        <v>0.0002899055252783</v>
       </c>
       <c r="D8">
-        <v>0.9987014532089233</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001231146743521094</v>
+        <v>0.001161716412752867</v>
       </c>
       <c r="B9">
-        <v>0.9996952414512634</v>
+        <v>0.9996885657310486</v>
       </c>
       <c r="C9">
-        <v>0.006759139243513346</v>
+        <v>5.530666749109514E-05</v>
       </c>
       <c r="D9">
-        <v>0.9993507266044617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0009030215442180634</v>
+        <v>0.0004956370103172958</v>
       </c>
       <c r="B10">
-        <v>0.9997968673706055</v>
+        <v>0.9998443126678467</v>
       </c>
       <c r="C10">
-        <v>0.004769213031977415</v>
+        <v>0.0001134614940383472</v>
       </c>
       <c r="D10">
-        <v>0.9993507266044617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0004076012119185179</v>
+        <v>0.0008988276240415871</v>
       </c>
       <c r="B11">
-        <v>0.9998577833175659</v>
+        <v>0.9998053312301636</v>
       </c>
       <c r="C11">
-        <v>0.002256473992019892</v>
+        <v>5.356170368031599E-05</v>
       </c>
       <c r="D11">
-        <v>0.9988313317298889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.001369976089335978</v>
+        <v>0.0008424934349022806</v>
       </c>
       <c r="B12">
-        <v>0.9997358918190002</v>
+        <v>0.9998248219490051</v>
       </c>
       <c r="C12">
-        <v>0.001323322532698512</v>
+        <v>1.095504740078468E-05</v>
       </c>
       <c r="D12">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0005591873778030276</v>
+        <v>0.0001231416244991124</v>
       </c>
       <c r="B13">
-        <v>0.9998577833175659</v>
+        <v>0.9999610781669617</v>
       </c>
       <c r="C13">
-        <v>0.005230619572103024</v>
+        <v>1.390909119436401E-06</v>
       </c>
       <c r="D13">
-        <v>0.9992209076881409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0004880662309005857</v>
+        <v>0.0008421097882091999</v>
       </c>
       <c r="B14">
-        <v>0.9998984336853027</v>
+        <v>0.9998248219490051</v>
       </c>
       <c r="C14">
-        <v>0.06229626759886742</v>
+        <v>0.0001134365884354338</v>
       </c>
       <c r="D14">
-        <v>0.9793533086776733</v>
+        <v>0.9999284148216248</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0001879286137409508</v>
+        <v>0.0004102381353732198</v>
       </c>
       <c r="B15">
-        <v>0.9999187588691711</v>
+        <v>0.9999221563339233</v>
       </c>
       <c r="C15">
-        <v>0.01613849587738514</v>
+        <v>1.188896476378432E-06</v>
       </c>
       <c r="D15">
-        <v>0.9916893839836121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.001867784652858973</v>
+        <v>0.0003576846211217344</v>
       </c>
       <c r="B16">
-        <v>0.9997358918190002</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C16">
-        <v>0.01163168530911207</v>
+        <v>1.221865022671409E-05</v>
       </c>
       <c r="D16">
-        <v>0.996493935585022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0004641236446332186</v>
+        <v>0.0001032729560392909</v>
       </c>
       <c r="B17">
-        <v>0.9998984336853027</v>
+        <v>0.9999415874481201</v>
       </c>
       <c r="C17">
-        <v>0.009660567156970501</v>
+        <v>6.898830520185584E-07</v>
       </c>
       <c r="D17">
-        <v>0.9955849647521973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0006616854225285351</v>
+        <v>0.0006652430165559053</v>
       </c>
       <c r="B18">
-        <v>0.9998171329498291</v>
+        <v>0.9998443126678467</v>
       </c>
       <c r="C18">
-        <v>0.0005179026047699153</v>
+        <v>2.514076413717703E-07</v>
       </c>
       <c r="D18">
-        <v>0.9998701214790344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0004291266959626228</v>
+        <v>0.0002929032489191741</v>
       </c>
       <c r="B19">
-        <v>0.9999187588691711</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C19">
-        <v>0.003307518782094121</v>
+        <v>1.966115860341233E-06</v>
       </c>
       <c r="D19">
-        <v>0.9990910291671753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0002978880074806511</v>
+        <v>0.0004951423616148531</v>
       </c>
       <c r="B20">
-        <v>0.9999187588691711</v>
+        <v>0.9998443126678467</v>
       </c>
       <c r="C20">
-        <v>0.001814884250052273</v>
+        <v>8.800275850262551E-07</v>
       </c>
       <c r="D20">
-        <v>0.9993507266044617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0004917886108160019</v>
+        <v>0.0001083862953237258</v>
       </c>
       <c r="B21">
-        <v>0.9998984336853027</v>
+        <v>0.9999610781669617</v>
       </c>
       <c r="C21">
-        <v>0.001048648147843778</v>
+        <v>2.609093918692906E-08</v>
       </c>
       <c r="D21">
-        <v>0.9994806051254272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0007474409067071974</v>
+        <v>0.0002073797077173367</v>
       </c>
       <c r="B22">
-        <v>0.9998171329498291</v>
+        <v>0.9999415874481201</v>
       </c>
       <c r="C22">
-        <v>0.001661051181145012</v>
+        <v>3.957772207741073E-07</v>
       </c>
       <c r="D22">
-        <v>0.9994806051254272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0001386938529321924</v>
+        <v>0.0006078690057620406</v>
       </c>
       <c r="B23">
-        <v>0.9999390244483948</v>
+        <v>0.9998248219490051</v>
       </c>
       <c r="C23">
-        <v>0.004698988050222397</v>
+        <v>0.0009092004620470107</v>
       </c>
       <c r="D23">
-        <v>0.9985716342926025</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003021816664841026</v>
+        <v>0.0006343477289192379</v>
       </c>
       <c r="B24">
-        <v>0.9999390244483948</v>
+        <v>0.9998248219490051</v>
       </c>
       <c r="C24">
-        <v>0.001541881007142365</v>
+        <v>3.029372965102084E-05</v>
       </c>
       <c r="D24">
-        <v>0.9993507266044617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0001137061481131241</v>
+        <v>0.0001211665221489966</v>
       </c>
       <c r="B25">
-        <v>0.9999593496322632</v>
+        <v>0.9999610781669617</v>
       </c>
       <c r="C25">
-        <v>0.001072428887709975</v>
+        <v>2.032799329754198E-06</v>
       </c>
       <c r="D25">
-        <v>0.9998701214790344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>3.552705311449245E-05</v>
+        <v>3.348788595758379E-05</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.0009380069095641375</v>
+        <v>1.612332312106446E-07</v>
       </c>
       <c r="D26">
-        <v>0.9998701214790344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.001010110136121511</v>
+        <v>4.301036096876487E-05</v>
       </c>
       <c r="B27">
-        <v>0.9998171329498291</v>
+        <v>0.9999805092811584</v>
       </c>
       <c r="C27">
-        <v>0.001088000484742224</v>
+        <v>1.500571124779526E-05</v>
       </c>
       <c r="D27">
-        <v>0.9998701214790344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0001256583782378584</v>
+        <v>0.0004061237850692123</v>
       </c>
       <c r="B28">
-        <v>0.9999593496322632</v>
+        <v>0.9999221563339233</v>
       </c>
       <c r="C28">
-        <v>0.0009581441408954561</v>
+        <v>1.066577048902673E-09</v>
       </c>
       <c r="D28">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0001994179474422708</v>
+        <v>0.0005263984203338623</v>
       </c>
       <c r="B29">
-        <v>0.9999187588691711</v>
+        <v>0.999883234500885</v>
       </c>
       <c r="C29">
-        <v>0.0008691670373082161</v>
+        <v>3.645078834324522E-07</v>
       </c>
       <c r="D29">
-        <v>0.9998701214790344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0002934144577011466</v>
+        <v>0.0003594472364056855</v>
       </c>
       <c r="B30">
-        <v>0.9999187588691711</v>
+        <v>0.9999415874481201</v>
       </c>
       <c r="C30">
-        <v>0.001189404516480863</v>
+        <v>1.127131277200988E-08</v>
       </c>
       <c r="D30">
-        <v>0.9994806051254272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0003493625845294446</v>
+        <v>8.497395901940763E-05</v>
       </c>
       <c r="B31">
-        <v>0.9998984336853027</v>
+        <v>0.9999805092811584</v>
       </c>
       <c r="C31">
-        <v>0.006141919177025557</v>
+        <v>1.783313718917157E-09</v>
       </c>
       <c r="D31">
-        <v>0.998441755771637</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001498634810559452</v>
+        <v>4.485066710913088E-06</v>
       </c>
       <c r="B32">
-        <v>0.9999593496322632</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0.002201457507908344</v>
+        <v>1.066576271746555E-09</v>
       </c>
       <c r="D32">
-        <v>0.9992209076881409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>3.03925608022837E-05</v>
+        <v>6.852985734440153E-06</v>
       </c>
       <c r="B33">
-        <v>0.9999796748161316</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>0.001678029890172184</v>
+        <v>7.59402374317375E-10</v>
       </c>
       <c r="D33">
-        <v>0.9993507266044617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0002189535298384726</v>
+        <v>6.257054678826535E-07</v>
       </c>
       <c r="B34">
-        <v>0.9999390244483948</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0.002176714362576604</v>
+        <v>3.413047622302656E-10</v>
       </c>
       <c r="D34">
-        <v>0.9989611506462097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0003084285126533359</v>
+        <v>0.0001588651939528063</v>
       </c>
       <c r="B35">
-        <v>0.9999796748161316</v>
+        <v>0.9999221563339233</v>
       </c>
       <c r="C35">
-        <v>0.00210945401340723</v>
+        <v>9.158576830259335E-08</v>
       </c>
       <c r="D35">
-        <v>0.9990910291671753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001985036942642182</v>
+        <v>0.001103704678826034</v>
       </c>
       <c r="B36">
-        <v>0.9999187588691711</v>
+        <v>0.9998248219490051</v>
       </c>
       <c r="C36">
-        <v>0.005830573383718729</v>
+        <v>3.12516306166799E-08</v>
       </c>
       <c r="D36">
-        <v>0.9983119368553162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1.789686393749435E-05</v>
+        <v>0.0001368596276734024</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9999610781669617</v>
       </c>
       <c r="C37">
-        <v>0.005526285618543625</v>
+        <v>1.706524505040719E-10</v>
       </c>
       <c r="D37">
-        <v>0.9983119368553162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>2.17073320527561E-05</v>
+        <v>0.0002708659158088267</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9999415874481201</v>
       </c>
       <c r="C38">
-        <v>0.008020238019526005</v>
+        <v>8.703239240404059E-10</v>
       </c>
       <c r="D38">
-        <v>0.9976626634597778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001652026548981667</v>
+        <v>9.745963325258344E-05</v>
       </c>
       <c r="B39">
-        <v>0.9999593496322632</v>
+        <v>0.9999805092811584</v>
       </c>
       <c r="C39">
-        <v>0.001181022147648036</v>
+        <v>5.37554445401156E-10</v>
       </c>
       <c r="D39">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0003896682756021619</v>
+        <v>1.02037347460282E-05</v>
       </c>
       <c r="B40">
-        <v>0.9999187588691711</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.005402479320764542</v>
+        <v>6.826097326273484E-11</v>
       </c>
       <c r="D40">
-        <v>0.9988313317298889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0001197011006297544</v>
+        <v>0.0001463483495172113</v>
       </c>
       <c r="B41">
-        <v>0.9999593496322632</v>
+        <v>0.9999415874481201</v>
       </c>
       <c r="C41">
-        <v>0.001983430702239275</v>
+        <v>1.168964369746561E-09</v>
       </c>
       <c r="D41">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>8.892395271686837E-06</v>
+        <v>0.0007930033607408404</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9998443126678467</v>
       </c>
       <c r="C42">
-        <v>0.002634135307744145</v>
+        <v>3.071743415183903E-10</v>
       </c>
       <c r="D42">
-        <v>0.9994806051254272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0002307465620106086</v>
+        <v>0.0002277269959449768</v>
       </c>
       <c r="B43">
-        <v>0.9999593496322632</v>
+        <v>0.9999221563339233</v>
       </c>
       <c r="C43">
-        <v>0.003290173364803195</v>
+        <v>1.450545655812263E-10</v>
       </c>
       <c r="D43">
-        <v>0.9994806051254272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0001711670192889869</v>
+        <v>3.462206950644031E-05</v>
       </c>
       <c r="B44">
-        <v>0.9999390244483948</v>
+        <v>0.9999805092811584</v>
       </c>
       <c r="C44">
-        <v>0.001847579376772046</v>
+        <v>5.034239691781295E-10</v>
       </c>
       <c r="D44">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>2.280237094964832E-05</v>
+        <v>9.538239100947976E-05</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.9999805092811584</v>
       </c>
       <c r="C45">
-        <v>0.001637911191210151</v>
+        <v>3.741920906463747E-08</v>
       </c>
       <c r="D45">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2.872677441700944E-06</v>
+        <v>0.0003430102369748056</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9999415874481201</v>
       </c>
       <c r="C46">
-        <v>0.001853591413237154</v>
+        <v>2.901090201401502E-10</v>
       </c>
       <c r="D46">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0004921036306768656</v>
+        <v>7.665503289899789E-06</v>
       </c>
       <c r="B47">
-        <v>0.9999593496322632</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.005948093254119158</v>
+        <v>3.250773079344071E-05</v>
       </c>
       <c r="D47">
-        <v>0.9994806051254272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.001327288337051868</v>
+        <v>0.0005710429977625608</v>
       </c>
       <c r="B48">
-        <v>0.9999187588691711</v>
+        <v>0.9999026656150818</v>
       </c>
       <c r="C48">
-        <v>0.003672604216262698</v>
+        <v>0.0004814779968000948</v>
       </c>
       <c r="D48">
-        <v>0.999610424041748</v>
+        <v>0.9999284148216248</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>1.609816354175564E-05</v>
+        <v>0.0002022783446591347</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9999805092811584</v>
       </c>
       <c r="C49">
-        <v>0.003462479915469885</v>
+        <v>3.297953199421499E-08</v>
       </c>
       <c r="D49">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0003063080948777497</v>
+        <v>0.0001402939815307036</v>
       </c>
       <c r="B50">
-        <v>0.9999796748161316</v>
+        <v>0.9999805092811584</v>
       </c>
       <c r="C50">
-        <v>0.002926076529547572</v>
+        <v>1.184031077627878E-07</v>
       </c>
       <c r="D50">
-        <v>0.9994806051254272</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.000402532983571291</v>
+        <v>0.0002179859584430233</v>
       </c>
       <c r="B51">
-        <v>0.9999593496322632</v>
+        <v>0.9999221563339233</v>
       </c>
       <c r="C51">
-        <v>0.006018331740051508</v>
+        <v>1.791850418042529E-10</v>
       </c>
       <c r="D51">
-        <v>0.999610424041748</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
